--- a/6_Documentation/Dictionaries/diccionario hotelbeds.xlsx
+++ b/6_Documentation/Dictionaries/diccionario hotelbeds.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Henry\02. Course\3. Final Proyect\Commerce-Data-Analysis-and-Recommendations\Commerce-Data-Analysis-and-Recommendations\6_Documentation\Dictionaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258561D2-CE2B-4658-BC71-75C506B4D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Z$154</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="D4hnOi5n8r0v04U6EVQinq/YYe25Xd4RMaZWeHVh0KY="/>
@@ -789,42 +801,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Quattrocento Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -832,7 +850,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -854,7 +872,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFAEABAB"/>
@@ -868,6 +892,7 @@
       <bottom style="thin">
         <color rgb="FFAEABAB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -882,6 +907,7 @@
       <bottom style="medium">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -890,63 +916,77 @@
       <right style="thin">
         <color rgb="FFAEABAB"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFAEABAB"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1136,28 +1176,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.86"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="101.43"/>
-    <col customWidth="1" min="4" max="4" width="21.57"/>
-    <col customWidth="1" min="5" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="26" width="10.71"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.0" customHeight="1">
+    <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1238,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1274,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1310,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1343,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1377,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1411,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1445,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1479,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1513,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1502,7 +1547,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1581,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1615,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -1604,7 +1649,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1683,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1717,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1751,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -1740,7 +1785,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1774,7 +1819,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1808,7 +1853,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1887,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1921,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1955,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -1944,7 +1989,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -1978,7 +2023,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2057,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2091,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2080,7 +2125,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -2114,7 +2159,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2193,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2227,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -2216,7 +2261,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -2250,7 +2295,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -2284,7 +2329,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
@@ -2318,7 +2363,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2397,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -2386,7 +2431,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -2420,7 +2465,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -2454,7 +2499,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>77</v>
       </c>
@@ -2488,7 +2533,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
@@ -2522,7 +2567,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
@@ -2556,7 +2601,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2590,7 +2635,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>85</v>
       </c>
@@ -2624,7 +2669,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2703,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>70</v>
       </c>
@@ -2692,7 +2737,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -2726,7 +2771,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>89</v>
       </c>
@@ -2760,7 +2805,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>30</v>
       </c>
@@ -2794,7 +2839,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
@@ -2828,7 +2873,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>94</v>
       </c>
@@ -2862,7 +2907,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>95</v>
       </c>
@@ -2896,7 +2941,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>97</v>
       </c>
@@ -2930,7 +2975,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>99</v>
       </c>
@@ -2964,7 +3009,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
@@ -2998,7 +3043,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>104</v>
       </c>
@@ -3032,7 +3077,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>106</v>
       </c>
@@ -3066,7 +3111,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
@@ -3100,7 +3145,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>111</v>
       </c>
@@ -3134,7 +3179,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>113</v>
       </c>
@@ -3168,14 +3213,14 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D60" s="3"/>
@@ -3202,14 +3247,14 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D61" s="3"/>
@@ -3236,7 +3281,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>30</v>
       </c>
@@ -3270,7 +3315,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>119</v>
       </c>
@@ -3304,7 +3349,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>121</v>
       </c>
@@ -3338,7 +3383,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>123</v>
       </c>
@@ -3372,7 +3417,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>125</v>
       </c>
@@ -3406,7 +3451,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>127</v>
       </c>
@@ -3440,7 +3485,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>130</v>
       </c>
@@ -3474,7 +3519,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>132</v>
       </c>
@@ -3508,7 +3553,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>109</v>
       </c>
@@ -3542,7 +3587,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>135</v>
       </c>
@@ -3576,7 +3621,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>137</v>
       </c>
@@ -3610,7 +3655,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>139</v>
       </c>
@@ -3644,7 +3689,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>141</v>
       </c>
@@ -3678,7 +3723,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>144</v>
       </c>
@@ -3712,7 +3757,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>146</v>
       </c>
@@ -3746,7 +3791,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>135</v>
       </c>
@@ -3780,7 +3825,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>149</v>
       </c>
@@ -3814,7 +3859,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>151</v>
       </c>
@@ -3848,7 +3893,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>153</v>
       </c>
@@ -3882,7 +3927,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>155</v>
       </c>
@@ -3916,7 +3961,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>158</v>
       </c>
@@ -3950,7 +3995,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>160</v>
       </c>
@@ -3984,7 +4029,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>162</v>
       </c>
@@ -4018,7 +4063,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>119</v>
       </c>
@@ -4052,7 +4097,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>121</v>
       </c>
@@ -4086,7 +4131,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
@@ -4120,7 +4165,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>168</v>
       </c>
@@ -4154,7 +4199,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>135</v>
       </c>
@@ -4188,7 +4233,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>171</v>
       </c>
@@ -4222,7 +4267,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>173</v>
       </c>
@@ -4256,7 +4301,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>176</v>
       </c>
@@ -4290,14 +4335,14 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="12" t="s">
         <v>178</v>
       </c>
       <c r="D93" s="3"/>
@@ -4324,14 +4369,14 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D94" s="3"/>
@@ -4358,7 +4403,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4437,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -4426,7 +4471,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>182</v>
       </c>
@@ -4460,7 +4505,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>135</v>
       </c>
@@ -4494,14 +4539,14 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D99" s="3"/>
@@ -4528,7 +4573,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>187</v>
       </c>
@@ -4562,7 +4607,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>48</v>
       </c>
@@ -4596,7 +4641,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>189</v>
       </c>
@@ -4630,7 +4675,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>192</v>
       </c>
@@ -4664,7 +4709,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>194</v>
       </c>
@@ -4698,7 +4743,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>196</v>
       </c>
@@ -4732,7 +4777,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>198</v>
       </c>
@@ -4766,7 +4811,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>200</v>
       </c>
@@ -4800,7 +4845,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>144</v>
       </c>
@@ -4834,7 +4879,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>30</v>
       </c>
@@ -4868,7 +4913,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>151</v>
       </c>
@@ -4902,7 +4947,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>204</v>
       </c>
@@ -4936,7 +4981,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -4970,7 +5015,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5049,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>123</v>
       </c>
@@ -5038,7 +5083,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>127</v>
       </c>
@@ -5072,7 +5117,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>130</v>
       </c>
@@ -5106,7 +5151,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>132</v>
       </c>
@@ -5140,7 +5185,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>109</v>
       </c>
@@ -5174,7 +5219,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>135</v>
       </c>
@@ -5208,7 +5253,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>137</v>
       </c>
@@ -5242,7 +5287,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>209</v>
       </c>
@@ -5276,7 +5321,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>30</v>
       </c>
@@ -5310,7 +5355,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>135</v>
       </c>
@@ -5344,7 +5389,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>214</v>
       </c>
@@ -5378,7 +5423,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>30</v>
       </c>
@@ -5412,7 +5457,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>121</v>
       </c>
@@ -5446,7 +5491,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>123</v>
       </c>
@@ -5480,7 +5525,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>109</v>
       </c>
@@ -5514,7 +5559,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>218</v>
       </c>
@@ -5548,7 +5593,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>153</v>
       </c>
@@ -5582,7 +5627,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>221</v>
       </c>
@@ -5616,7 +5661,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>224</v>
       </c>
@@ -5650,7 +5695,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>12</v>
       </c>
@@ -5684,7 +5729,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>30</v>
       </c>
@@ -5718,7 +5763,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>228</v>
       </c>
@@ -5752,7 +5797,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>12</v>
       </c>
@@ -5786,7 +5831,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>48</v>
       </c>
@@ -5820,7 +5865,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>233</v>
       </c>
@@ -5854,7 +5899,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>234</v>
       </c>
@@ -5888,7 +5933,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>30</v>
       </c>
@@ -5922,7 +5967,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>119</v>
       </c>
@@ -5956,7 +6001,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>48</v>
       </c>
@@ -5990,7 +6035,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>238</v>
       </c>
@@ -6024,7 +6069,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>240</v>
       </c>
@@ -6058,7 +6103,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>242</v>
       </c>
@@ -6092,7 +6137,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>244</v>
       </c>
@@ -6126,7 +6171,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>144</v>
       </c>
@@ -6160,7 +6205,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>248</v>
       </c>
@@ -6194,7 +6239,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>151</v>
       </c>
@@ -6228,7 +6273,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>153</v>
       </c>
@@ -6262,7 +6307,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>250</v>
       </c>
@@ -6296,7 +6341,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>30</v>
       </c>
@@ -6330,7 +6375,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>48</v>
       </c>
@@ -6364,7 +6409,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>94</v>
       </c>
@@ -6398,7 +6443,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6426,7 +6471,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6454,7 +6499,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6482,7 +6527,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6510,7 +6555,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6538,7 +6583,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6566,7 +6611,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6594,7 +6639,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6622,7 +6667,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6650,7 +6695,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6678,7 +6723,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6706,7 +6751,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6734,7 +6779,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6762,7 +6807,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6790,7 +6835,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6818,7 +6863,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6846,7 +6891,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6874,7 +6919,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6902,7 +6947,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6930,7 +6975,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6958,7 +7003,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6986,7 +7031,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -7014,7 +7059,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -7042,7 +7087,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -7070,7 +7115,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -7098,7 +7143,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -7126,7 +7171,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -7154,7 +7199,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -7182,7 +7227,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -7210,7 +7255,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -7238,7 +7283,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -7266,7 +7311,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -7294,7 +7339,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -7322,7 +7367,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -7350,7 +7395,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -7378,7 +7423,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -7406,7 +7451,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -7434,7 +7479,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -7462,7 +7507,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7490,7 +7535,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7518,7 +7563,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7546,7 +7591,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7574,7 +7619,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7602,7 +7647,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7630,7 +7675,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7658,7 +7703,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7686,7 +7731,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7714,7 +7759,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7742,7 +7787,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7770,7 +7815,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7798,7 +7843,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7826,7 +7871,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7854,7 +7899,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7882,7 +7927,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7910,7 +7955,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7938,7 +7983,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7966,7 +8011,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7994,7 +8039,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -8022,7 +8067,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -8050,7 +8095,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -8078,7 +8123,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -8106,7 +8151,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -8134,7 +8179,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -8162,7 +8207,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -8190,7 +8235,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -8218,7 +8263,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -8246,7 +8291,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -8274,7 +8319,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -8302,7 +8347,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -8330,7 +8375,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -8358,7 +8403,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -8386,7 +8431,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -8414,7 +8459,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -8442,7 +8487,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -8470,7 +8515,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -8498,7 +8543,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -8526,7 +8571,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -8554,7 +8599,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -8582,7 +8627,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -8610,7 +8655,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -8638,7 +8683,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -8666,7 +8711,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -8694,7 +8739,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -8722,7 +8767,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -8750,7 +8795,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -8778,7 +8823,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -8806,7 +8851,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -8834,7 +8879,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -8862,7 +8907,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -8890,7 +8935,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -8918,7 +8963,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -8946,7 +8991,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -8974,7 +9019,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9002,7 +9047,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9030,7 +9075,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9058,7 +9103,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9086,7 +9131,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -9114,7 +9159,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -9142,7 +9187,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9170,7 +9215,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -9198,7 +9243,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -9226,7 +9271,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -9254,7 +9299,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -9282,7 +9327,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -9310,7 +9355,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -9338,7 +9383,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -9366,7 +9411,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9394,7 +9439,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -9422,7 +9467,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -9450,7 +9495,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -9478,7 +9523,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -9506,7 +9551,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -9534,7 +9579,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -9562,7 +9607,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -9590,7 +9635,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -9618,7 +9663,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -9646,7 +9691,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -9674,7 +9719,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -9702,7 +9747,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -9730,7 +9775,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -9758,7 +9803,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -9786,7 +9831,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -9814,7 +9859,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -9842,7 +9887,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -9870,7 +9915,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -9898,7 +9943,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -9926,7 +9971,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -9954,7 +9999,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -9982,7 +10027,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -10010,7 +10055,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -10038,7 +10083,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -10066,7 +10111,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -10094,7 +10139,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -10122,7 +10167,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -10150,7 +10195,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -10178,7 +10223,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -10206,7 +10251,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -10234,7 +10279,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -10262,7 +10307,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -10290,7 +10335,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -10318,7 +10363,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -10346,7 +10391,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -10374,7 +10419,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -10402,7 +10447,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -10430,7 +10475,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -10458,7 +10503,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -10486,7 +10531,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -10514,7 +10559,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -10542,7 +10587,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -10570,7 +10615,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -10598,7 +10643,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -10626,7 +10671,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -10654,7 +10699,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -10682,7 +10727,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -10710,7 +10755,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -10738,7 +10783,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -10766,7 +10811,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -10794,7 +10839,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -10822,7 +10867,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -10850,7 +10895,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -10878,7 +10923,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -10906,7 +10951,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -10934,7 +10979,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -10962,7 +11007,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -10990,7 +11035,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -11018,7 +11063,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -11046,7 +11091,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -11074,7 +11119,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -11102,7 +11147,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -11130,7 +11175,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -11158,7 +11203,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -11186,7 +11231,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -11214,7 +11259,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -11242,7 +11287,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -11270,7 +11315,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -11298,7 +11343,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -11326,7 +11371,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -11354,7 +11399,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -11382,7 +11427,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -11410,7 +11455,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -11438,7 +11483,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -11466,7 +11511,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -11494,7 +11539,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -11522,7 +11567,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -11550,7 +11595,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -11578,7 +11623,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -11606,7 +11651,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -11634,7 +11679,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -11662,7 +11707,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -11690,7 +11735,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -11718,7 +11763,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -11746,7 +11791,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -11774,7 +11819,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -11802,7 +11847,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -11830,7 +11875,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -11858,7 +11903,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -11886,7 +11931,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -11914,7 +11959,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -11942,7 +11987,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -11970,7 +12015,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -11998,7 +12043,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -12026,7 +12071,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -12054,7 +12099,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -12082,7 +12127,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -12110,7 +12155,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -12138,7 +12183,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -12166,7 +12211,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -12194,7 +12239,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -12222,7 +12267,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -12250,7 +12295,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -12278,7 +12323,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -12306,7 +12351,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -12334,7 +12379,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -12362,7 +12407,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -12390,7 +12435,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -12418,7 +12463,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -12446,7 +12491,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -12474,7 +12519,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -12502,7 +12547,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -12530,7 +12575,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -12558,7 +12603,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -12586,7 +12631,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -12614,7 +12659,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -12642,7 +12687,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -12670,7 +12715,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -12698,7 +12743,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -12726,7 +12771,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -12754,7 +12799,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -12782,7 +12827,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -12810,7 +12855,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -12838,7 +12883,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -12866,7 +12911,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -12894,7 +12939,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -12922,7 +12967,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -12950,7 +12995,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -12978,7 +13023,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -13006,7 +13051,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -13034,7 +13079,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -13062,7 +13107,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -13090,7 +13135,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -13118,7 +13163,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -13146,7 +13191,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -13174,7 +13219,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -13202,7 +13247,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -13230,7 +13275,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -13258,7 +13303,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -13286,7 +13331,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -13314,7 +13359,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -13342,7 +13387,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -13370,7 +13415,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -13398,7 +13443,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -13426,7 +13471,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -13454,7 +13499,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -13482,7 +13527,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -13510,7 +13555,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -13538,7 +13583,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -13566,7 +13611,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -13594,7 +13639,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -13622,7 +13667,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -13650,7 +13695,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -13678,7 +13723,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -13706,7 +13751,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -13734,7 +13779,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -13762,7 +13807,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -13790,7 +13835,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -13818,7 +13863,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -13846,7 +13891,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -13874,7 +13919,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -13902,7 +13947,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -13930,7 +13975,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -13958,7 +14003,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -13986,7 +14031,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -14014,7 +14059,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -14042,7 +14087,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -14070,7 +14115,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -14098,7 +14143,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -14126,7 +14171,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -14154,7 +14199,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -14182,7 +14227,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -14210,7 +14255,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -14238,7 +14283,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -14266,7 +14311,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -14294,7 +14339,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -14322,7 +14367,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -14350,7 +14395,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -14378,7 +14423,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -14406,7 +14451,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -14434,7 +14479,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -14462,7 +14507,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -14490,7 +14535,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -14518,7 +14563,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -14546,7 +14591,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -14574,7 +14619,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -14602,7 +14647,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -14630,7 +14675,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -14658,7 +14703,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -14686,7 +14731,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -14714,7 +14759,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -14742,7 +14787,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -14770,7 +14815,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -14798,7 +14843,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -14826,7 +14871,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -14854,7 +14899,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -14882,7 +14927,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -14910,7 +14955,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -14938,7 +14983,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -14966,7 +15011,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -14994,7 +15039,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -15022,7 +15067,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -15050,7 +15095,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -15078,7 +15123,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -15106,7 +15151,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -15134,7 +15179,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -15162,7 +15207,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -15190,7 +15235,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -15218,7 +15263,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -15246,7 +15291,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -15274,7 +15319,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -15302,7 +15347,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -15330,7 +15375,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -15358,7 +15403,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -15386,7 +15431,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -15414,7 +15459,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -15442,7 +15487,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -15470,7 +15515,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -15498,7 +15543,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -15526,7 +15571,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -15554,7 +15599,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -15582,7 +15627,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -15610,7 +15655,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -15638,7 +15683,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -15666,7 +15711,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -15694,7 +15739,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -15722,7 +15767,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -15750,7 +15795,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -15778,7 +15823,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -15806,7 +15851,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -15834,7 +15879,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -15862,7 +15907,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -15890,7 +15935,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -15918,7 +15963,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -15946,7 +15991,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -15974,7 +16019,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -16002,7 +16047,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -16030,7 +16075,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -16058,7 +16103,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -16086,7 +16131,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -16114,7 +16159,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -16142,7 +16187,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -16170,7 +16215,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -16198,7 +16243,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -16226,7 +16271,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -16254,7 +16299,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -16282,7 +16327,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -16310,7 +16355,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -16338,7 +16383,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -16366,7 +16411,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -16394,7 +16439,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -16422,7 +16467,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -16450,7 +16495,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -16478,7 +16523,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -16506,7 +16551,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -16534,7 +16579,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -16562,7 +16607,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -16590,7 +16635,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -16618,7 +16663,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -16646,7 +16691,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -16674,7 +16719,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -16702,7 +16747,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -16730,7 +16775,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -16758,7 +16803,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -16786,7 +16831,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -16814,7 +16859,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -16842,7 +16887,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -16870,7 +16915,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -16898,7 +16943,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -16926,7 +16971,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -16954,7 +16999,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -16982,7 +17027,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -17010,7 +17055,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -17038,7 +17083,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -17066,7 +17111,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -17094,7 +17139,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -17122,7 +17167,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -17150,7 +17195,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -17178,7 +17223,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -17206,7 +17251,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -17234,7 +17279,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -17262,7 +17307,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -17290,7 +17335,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -17318,7 +17363,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -17346,7 +17391,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -17374,7 +17419,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -17402,7 +17447,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -17430,7 +17475,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -17458,7 +17503,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -17486,7 +17531,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -17514,7 +17559,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -17542,7 +17587,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -17570,7 +17615,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -17598,7 +17643,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -17626,7 +17671,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -17654,7 +17699,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -17682,7 +17727,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -17710,7 +17755,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -17738,7 +17783,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -17766,7 +17811,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -17794,7 +17839,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -17822,7 +17867,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -17850,7 +17895,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -17878,7 +17923,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -17906,7 +17951,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -17934,7 +17979,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -17962,7 +18007,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -17990,7 +18035,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -18018,7 +18063,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -18046,7 +18091,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -18074,7 +18119,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -18102,7 +18147,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -18130,7 +18175,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -18158,7 +18203,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -18186,7 +18231,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -18214,7 +18259,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -18242,7 +18287,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -18270,7 +18315,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -18298,7 +18343,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -18326,7 +18371,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -18354,7 +18399,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -18382,7 +18427,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -18410,7 +18455,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -18438,7 +18483,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -18466,7 +18511,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -18494,7 +18539,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -18522,7 +18567,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -18550,7 +18595,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -18578,7 +18623,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -18606,7 +18651,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -18634,7 +18679,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -18662,7 +18707,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -18690,7 +18735,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -18718,7 +18763,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -18746,7 +18791,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -18774,7 +18819,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -18802,7 +18847,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -18830,7 +18875,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -18858,7 +18903,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -18886,7 +18931,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -18914,7 +18959,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -18942,7 +18987,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -18970,7 +19015,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -18998,7 +19043,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -19026,7 +19071,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -19054,7 +19099,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -19082,7 +19127,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -19110,7 +19155,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -19138,7 +19183,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -19166,7 +19211,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -19194,7 +19239,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -19222,7 +19267,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -19250,7 +19295,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -19278,7 +19323,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -19306,7 +19351,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -19334,7 +19379,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -19362,7 +19407,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -19390,7 +19435,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -19418,7 +19463,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -19446,7 +19491,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -19474,7 +19519,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -19502,7 +19547,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -19530,7 +19575,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -19558,7 +19603,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -19586,7 +19631,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -19614,7 +19659,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -19642,7 +19687,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -19670,7 +19715,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -19698,7 +19743,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -19726,7 +19771,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -19754,7 +19799,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -19782,7 +19827,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -19810,7 +19855,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -19838,7 +19883,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -19866,7 +19911,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -19894,7 +19939,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -19922,7 +19967,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -19950,7 +19995,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -19978,7 +20023,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -20006,7 +20051,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -20034,7 +20079,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -20062,7 +20107,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -20090,7 +20135,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -20118,7 +20163,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -20146,7 +20191,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -20174,7 +20219,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -20202,7 +20247,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -20230,7 +20275,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -20258,7 +20303,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -20286,7 +20331,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -20314,7 +20359,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -20342,7 +20387,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -20370,7 +20415,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -20398,7 +20443,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -20426,7 +20471,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -20454,7 +20499,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -20482,7 +20527,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -20510,7 +20555,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -20538,7 +20583,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -20566,7 +20611,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -20594,7 +20639,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -20622,7 +20667,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -20650,7 +20695,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -20678,7 +20723,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -20706,7 +20751,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -20734,7 +20779,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -20762,7 +20807,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -20790,7 +20835,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -20818,7 +20863,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -20846,7 +20891,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -20874,7 +20919,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -20902,7 +20947,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -20930,7 +20975,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -20958,7 +21003,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -20986,7 +21031,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -21014,7 +21059,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -21042,7 +21087,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -21070,7 +21115,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -21098,7 +21143,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -21126,7 +21171,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -21154,7 +21199,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -21182,7 +21227,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -21210,7 +21255,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -21238,7 +21283,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -21266,7 +21311,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -21294,7 +21339,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -21322,7 +21367,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -21350,7 +21395,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -21378,7 +21423,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -21406,7 +21451,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -21434,7 +21479,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -21462,7 +21507,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -21490,7 +21535,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -21518,7 +21563,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -21546,7 +21591,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -21574,7 +21619,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -21602,7 +21647,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -21630,7 +21675,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -21658,7 +21703,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -21686,7 +21731,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -21714,7 +21759,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -21742,7 +21787,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -21770,7 +21815,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -21798,7 +21843,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -21826,7 +21871,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -21854,7 +21899,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -21882,7 +21927,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -21910,7 +21955,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -21938,7 +21983,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -21966,7 +22011,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -21994,7 +22039,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -22022,7 +22067,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -22050,7 +22095,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -22078,7 +22123,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -22106,7 +22151,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -22134,7 +22179,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -22162,7 +22207,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -22190,7 +22235,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -22218,7 +22263,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -22246,7 +22291,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -22274,7 +22319,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -22302,7 +22347,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -22330,7 +22375,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -22358,7 +22403,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -22386,7 +22431,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -22414,7 +22459,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -22442,7 +22487,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -22470,7 +22515,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -22498,7 +22543,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -22526,7 +22571,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -22554,7 +22599,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -22582,7 +22627,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -22610,7 +22655,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -22638,7 +22683,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -22666,7 +22711,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -22694,7 +22739,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -22722,7 +22767,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -22750,7 +22795,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -22778,7 +22823,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -22806,7 +22851,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -22834,7 +22879,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -22862,7 +22907,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -22890,7 +22935,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -22918,7 +22963,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -22946,7 +22991,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -22974,7 +23019,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -23002,7 +23047,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -23030,7 +23075,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -23058,7 +23103,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -23086,7 +23131,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -23114,7 +23159,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -23142,7 +23187,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -23170,7 +23215,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -23198,7 +23243,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -23226,7 +23271,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -23254,7 +23299,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -23282,7 +23327,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -23310,7 +23355,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -23338,7 +23383,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -23366,7 +23411,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -23394,7 +23439,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -23422,7 +23467,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -23450,7 +23495,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -23478,7 +23523,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -23506,7 +23551,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -23534,7 +23579,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -23562,7 +23607,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -23590,7 +23635,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -23618,7 +23663,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -23646,7 +23691,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -23674,7 +23719,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -23702,7 +23747,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -23730,7 +23775,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -23758,7 +23803,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -23786,7 +23831,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -23814,7 +23859,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -23842,7 +23887,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -23870,7 +23915,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -23898,7 +23943,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -23926,7 +23971,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -23954,7 +23999,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -23982,7 +24027,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -24010,7 +24055,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -24038,7 +24083,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -24066,7 +24111,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -24094,7 +24139,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -24122,7 +24167,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -24150,7 +24195,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -24178,7 +24223,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -24206,7 +24251,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -24234,7 +24279,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -24262,7 +24307,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -24290,7 +24335,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -24318,7 +24363,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -24346,7 +24391,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -24374,7 +24419,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -24402,7 +24447,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -24430,7 +24475,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -24458,7 +24503,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -24486,7 +24531,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -24514,7 +24559,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -24542,7 +24587,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -24570,7 +24615,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -24598,7 +24643,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -24626,7 +24671,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -24654,7 +24699,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -24682,7 +24727,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -24710,7 +24755,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -24738,7 +24783,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -24766,7 +24811,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -24794,7 +24839,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -24822,7 +24867,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -24850,7 +24895,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -24878,7 +24923,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -24906,7 +24951,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -24934,7 +24979,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -24962,7 +25007,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -24990,7 +25035,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -25018,7 +25063,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -25046,7 +25091,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -25074,7 +25119,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -25102,7 +25147,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -25130,7 +25175,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -25158,7 +25203,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -25186,7 +25231,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -25214,7 +25259,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -25242,7 +25287,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -25270,7 +25315,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -25298,7 +25343,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -25326,7 +25371,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -25354,7 +25399,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -25382,7 +25427,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -25410,7 +25455,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -25438,7 +25483,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -25466,7 +25511,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -25494,7 +25539,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -25522,7 +25567,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -25550,7 +25595,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -25578,7 +25623,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -25606,7 +25651,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -25634,7 +25679,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -25662,7 +25707,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -25690,7 +25735,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -25718,7 +25763,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -25746,7 +25791,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -25774,7 +25819,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -25802,7 +25847,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -25830,7 +25875,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -25858,7 +25903,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -25886,7 +25931,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -25914,7 +25959,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -25942,7 +25987,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -25970,7 +26015,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -25998,7 +26043,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -26026,7 +26071,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -26054,7 +26099,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -26082,7 +26127,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -26110,7 +26155,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -26138,7 +26183,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -26166,7 +26211,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -26194,7 +26239,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -26222,7 +26267,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -26250,7 +26295,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -26278,7 +26323,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -26306,7 +26351,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -26334,7 +26379,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -26362,7 +26407,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -26390,7 +26435,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -26418,7 +26463,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -26446,7 +26491,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -26474,7 +26519,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -26502,7 +26547,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -26530,7 +26575,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -26558,7 +26603,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -26586,7 +26631,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -26614,7 +26659,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -26642,7 +26687,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -26670,7 +26715,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -26698,7 +26743,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -26726,7 +26771,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -26754,7 +26799,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -26782,7 +26827,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -26810,7 +26855,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -26838,7 +26883,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -26866,7 +26911,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -26894,7 +26939,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -26922,7 +26967,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -26950,7 +26995,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -26978,7 +27023,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -27006,7 +27051,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -27034,7 +27079,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -27062,7 +27107,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -27090,7 +27135,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -27118,7 +27163,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -27146,7 +27191,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -27174,7 +27219,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -27202,7 +27247,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -27230,7 +27275,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -27258,7 +27303,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -27286,7 +27331,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -27314,7 +27359,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -27342,7 +27387,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -27370,7 +27415,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -27398,7 +27443,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -27426,7 +27471,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -27454,7 +27499,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -27482,7 +27527,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -27510,7 +27555,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -27538,7 +27583,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -27566,7 +27611,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -27594,7 +27639,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -27622,7 +27667,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -27650,7 +27695,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -27678,7 +27723,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -27706,7 +27751,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -27734,7 +27779,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -27762,7 +27807,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -27790,7 +27835,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -27818,7 +27863,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -27846,7 +27891,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -27874,7 +27919,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -27902,7 +27947,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -27930,7 +27975,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -27958,7 +28003,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -27986,7 +28031,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -28014,7 +28059,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -28042,7 +28087,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -28070,7 +28115,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -28098,7 +28143,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -28126,7 +28171,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -28154,7 +28199,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -28182,7 +28227,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -28210,7 +28255,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -28238,7 +28283,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -28266,7 +28311,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -28294,7 +28339,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -28322,7 +28367,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -28350,7 +28395,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -28378,7 +28423,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -28406,7 +28451,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -28434,7 +28479,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -28462,7 +28507,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -28490,7 +28535,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -28518,7 +28563,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -28546,7 +28591,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -28574,7 +28619,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -28602,7 +28647,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -28630,7 +28675,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -28658,7 +28703,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -28686,7 +28731,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -28714,7 +28759,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -28742,7 +28787,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -28770,7 +28815,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -28798,7 +28843,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -28826,7 +28871,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -28854,7 +28899,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -28882,7 +28927,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -28910,7 +28955,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -28938,7 +28983,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -28966,7 +29011,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -28994,7 +29039,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -29022,7 +29067,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -29050,7 +29095,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -29078,7 +29123,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -29106,7 +29151,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -29134,7 +29179,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -29162,7 +29207,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -29190,7 +29235,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -29218,7 +29263,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -29246,7 +29291,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -29274,7 +29319,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -29302,7 +29347,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -29330,7 +29375,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -29358,7 +29403,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -29386,7 +29431,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -29414,7 +29459,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -29442,7 +29487,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -29470,7 +29515,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -29498,7 +29543,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -29526,7 +29571,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -29554,7 +29599,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -29582,7 +29627,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -29610,7 +29655,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -29638,7 +29683,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -29666,7 +29711,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -29694,7 +29739,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -29722,7 +29767,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -29750,7 +29795,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -29778,7 +29823,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -29806,7 +29851,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -29834,7 +29879,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -29862,7 +29907,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -29890,7 +29935,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -29918,7 +29963,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -29946,7 +29991,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -29974,7 +30019,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -30002,7 +30047,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -30030,7 +30075,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -30058,7 +30103,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -30087,9 +30132,8 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:Z154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>